--- a/packages/sync-server/__tests__/importers/programs-registry-valid.xlsx
+++ b/packages/sync-server/__tests__/importers/programs-registry-valid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\alastair\BE\tamanu\packages\sync-server\__tests__\importers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EFD2A2-DB24-435F-A00E-B6BF5DEA8784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D1634B-8D13-4A45-BA48-42A2520F9B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="7755" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1DEB62B3-264E-1144-868E-C46669C3E049}"/>
+    <workbookView xWindow="60270" yWindow="10545" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{1DEB62B3-264E-1144-868E-C46669C3E049}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
   <si>
     <t>programName</t>
   </si>
@@ -194,19 +194,10 @@
     <t>orange</t>
   </si>
   <si>
-    <t>historical</t>
-  </si>
-  <si>
-    <t>Deregistered</t>
-  </si>
-  <si>
     <t>red</t>
   </si>
   <si>
     <t>Inactive</t>
-  </si>
-  <si>
-    <t>grey</t>
   </si>
   <si>
     <t>Valid Registry</t>
@@ -715,10 +706,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F2ABA9-1D18-4319-BF4F-02CF9C1D20B6}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -732,7 +723,7 @@
         <v>39</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -742,7 +733,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -812,7 +803,7 @@
         <v>50</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -823,23 +814,9 @@
         <v>52</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="6" t="s">
         <v>42</v>
       </c>
     </row>
